--- a/result/reg/2024_solo_all_ratio.xlsx
+++ b/result/reg/2024_solo_all_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.497</v>
+        <v>-0.669</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.649</v>
+        <v>-0.584</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.655</v>
+        <v>-0.542</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.502</v>
+        <v>-0.319</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.483</v>
+        <v>-0.307</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.479</v>
+        <v>-0.344</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,11 +535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.181</v>
+        <v>-0.218</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.348</v>
+        <v>-0.203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.34</v>
+        <v>-0.279</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -566,67 +566,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.089</v>
+        <v>-0.144</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.079</v>
+        <v>-0.182</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.213</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.13</v>
+        <v>0.119</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.132</v>
+        <v>0.089</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.231</v>
+        <v>0.16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.14</v>
+        <v>0.164</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.138</v>
+        <v>0.166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -653,33 +653,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.208</v>
+        <v>0.153</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.169</v>
+        <v>0.211</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,7 +682,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.215</v>
+        <v>0.193</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -696,7 +690,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.187</v>
+        <v>0.227</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -704,7 +698,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.185</v>
+        <v>0.223</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -715,11 +709,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.293</v>
+        <v>0.392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -727,7 +721,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.267</v>
+        <v>0.308</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -735,7 +729,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.235</v>
+        <v>0.359</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -746,11 +740,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.704</v>
+        <v>0.471</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -758,7 +752,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.483</v>
+        <v>0.397</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -766,7 +760,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.516</v>
+        <v>0.461</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,40 +771,58 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.341</v>
+        <v>0.538</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.482</v>
+        <v>0.15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -819,7 +831,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.275</v>
+        <v>-0.038</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -838,7 +850,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.052</v>
+        <v>-0.065</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -857,7 +869,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.021</v>
+        <v>-0.034</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -872,11 +884,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.056</v>
+        <v>-0.093</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -891,11 +903,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.158</v>
+        <v>0.055</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -910,11 +922,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.047</v>
+        <v>0.021</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -929,11 +941,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.027</v>
+        <v>-0.064</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -952,7 +964,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -971,7 +983,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.047</v>
+        <v>0.007</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -990,7 +1002,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1005,11 +1017,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>기타대학</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.038</v>
+        <v>0.032</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1021,25 +1033,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>기타대학</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
